--- a/metric_latest.xlsx
+++ b/metric_latest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="145">
   <si>
     <t>metric_id</t>
   </si>
@@ -349,6 +349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>select count(if(dctj_status='1',work_id,null)) / count(*)</t>
     </r>
     <r>
@@ -375,19 +382,7 @@
     <t>["待回访数量"]</t>
   </si>
   <si>
-    <r>
-      <t>select count(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-from dwd_ocaep_work_flow_info_df</t>
-    </r>
+    <t>select count(if(feedback_channel_id NOT IN (80, 90),work_id,null)) from dwd_ocaep_work_flow_info_df</t>
   </si>
   <si>
     <t>["w_id", "node_name"]</t>
@@ -399,29 +394,6 @@
     <t>["已回访数量"]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select count(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-from dwd_ocaep_work_flow_info_df 
-where dchf_status='1'</t>
-    </r>
-  </si>
-  <si>
     <t>["w_id", "node_name", "node_task_status"]</t>
   </si>
   <si>
@@ -431,26 +403,13 @@
     <t>["已回访占比"]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select count(if(dchf_status='1',work_id,null))/count(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-from dwd_ocaep_work_flow_info_df</t>
-    </r>
+    <t xml:space="preserve">select  count(  
+                case when downstream_sys='0' and dchf_status='1' and feedback_channel_id NOT IN (80, 90) then work_id 
+                    when  downstream_sys in('3','4') and zxhf_status='1' and feedback_channel_id NOT IN (80, 90)  then work_id 
+                    else null 
+               end 
+        ) / count(if(feedback_channel_id NOT IN (80, 90),work_id,null))
+from dwd_ocaep_work_flow_info_df </t>
   </si>
   <si>
     <t>已回访数 / 待回访总数。</t>
@@ -485,6 +444,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>select count(if(wtgb_status='1',work_id,null))/count(*)</t>
     </r>
     <r>
@@ -509,6 +475,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">select count(*) from dwd_ocaep_work_flow_info_df </t>
     </r>
     <r>
@@ -534,6 +507,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>select count(if(dctj_timeout_status='1',work_id,null))/ count(if(dctj_status='1',work_id,null))</t>
     </r>
     <r>
@@ -556,6 +536,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">select count(*) from dwd_ocaep_work_flow_info_df </t>
     </r>
     <r>
@@ -578,6 +565,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>select count(if(dchf_timeout_status='1',work_id,null))/ count(if(dchf_status='1',work_id,null))</t>
     </r>
     <r>
@@ -676,7 +670,7 @@
     <t>["customer_code", "customer_level", "product_type_name", "sentiment_score", "sentiment_type", "sound_name", "one_level_lable_id", "second_level_lable_id"]</t>
   </si>
   <si>
-    <t>SAB 客户与非 SAB 客户满意度的加权平均（各占 50%）。</t>
+    <t>用产品类型计算出单客户平均,然后在根据是否SAB客户分配权重,SAB占一半,非SAB占一半,最终得到整体满意度</t>
   </si>
 </sst>
 </file>
@@ -1723,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2235,7 +2229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" ht="15.75" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2254,7 +2248,6 @@
       <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>77</v>
       </c>
@@ -2271,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" ht="15.75" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2287,7 +2280,6 @@
       <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="H15"/>
       <c r="I15" t="s">
         <v>20</v>
       </c>
@@ -2517,7 +2509,6 @@
       <c r="G22" t="s">
         <v>106</v>
       </c>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>20</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="45.75" spans="1:13">
+    <row r="23" ht="30.75" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2545,15 +2536,14 @@
         <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
         <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23"/>
+        <v>109</v>
+      </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
@@ -2570,27 +2560,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="45.75" spans="1:13">
+    <row r="24" ht="180.75" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F24" t="s">
         <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
         <v>77</v>
@@ -2613,16 +2603,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
       <c r="I25" t="s">
         <v>20</v>
       </c>
@@ -2644,19 +2632,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
       </c>
       <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
         <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>120</v>
       </c>
       <c r="I26" t="s">
         <v>77</v>
@@ -2679,19 +2667,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F27" t="s">
         <v>88</v>
       </c>
       <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
         <v>123</v>
-      </c>
-      <c r="H27" t="s">
-        <v>124</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -2714,19 +2702,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
         <v>77</v>
@@ -2749,19 +2737,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -2784,19 +2772,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F30" t="s">
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
         <v>77</v>
@@ -2819,16 +2807,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
         <v>133</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>134</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
@@ -2836,7 +2824,6 @@
       <c r="G31" t="s">
         <v>42</v>
       </c>
-      <c r="H31"/>
       <c r="I31" t="s">
         <v>20</v>
       </c>
@@ -2858,20 +2845,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
         <v>139</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32" t="s">
-        <v>140</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -2891,25 +2877,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
         <v>141</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
       </c>
       <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
         <v>144</v>
       </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -2928,7 +2914,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:M13 F14:G15 I14:M15 F18:G18 I18:M18 F19:M19 F20:G20 I20:M20 F21:M21 F22:G23 I22:M23 F24:M24 F25 I25:M25 F26:M26 F27:G32 I27:M32 F33:M33 K16:M17 I16:I17 G1:M1 B33:C33 B32 B31:C31 B26 B28:B30 B22:C24 B15:B21 B14:C14 B13 B11:C12 B10 B2:C9 A1:B1" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:M13 F14:G15 I14:M15 F18:G18 I18:M18 F19:M19 F20:G20 I20:M20 F21:M21 F22:G23 I22:M23 F24:M24 F25 I25:M25 F26:M26 I27:M33 F27:G33 K16:M17 I16:I17 G1:M1 B33:C33 B32 B31:C31 B26 B28:B30 B22:C24 B15:B21 B14:C14 B13 B11:C12 B10 B2:C9 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>